--- a/Glosario IPT.xlsx
+++ b/Glosario IPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\volumetría\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-IPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4003BF5-11CA-4D9A-A132-E849BC527828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D383D-03B6-40FB-AA18-3998FE034353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50967B66-CCA8-49D0-8DA8-78F3AD2AC819}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50967B66-CCA8-49D0-8DA8-78F3AD2AC819}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla Glosario" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve">Nombre Instrumento </t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>Elaborado por la Municipalidad respectiva, debe pasar las instacias de participación ciudadana y ser revisado por la SEREMI correspondiente quién emitirá un informe. En caso de existir un PRI o PRM, tal informmé irá directamente al municipio con copia al Gobierno Regional, luego el Municipio deberá tomar medidas en caso que el informe no sea favorable. En caso de NO existir un PRI o PRM tal informe será remitido directamente al Gobierno Regional.</t>
+  </si>
+  <si>
+    <t>1. Memoria Explicativa  2. Estudios de Factibilidad 3. Ordenanza Local  4. Planos</t>
+  </si>
+  <si>
+    <t>1. Memoria Explicativa  2. Ordenanza  3. Planos</t>
+  </si>
+  <si>
+    <t>1. Memoria Explicativa  2. Linemientos de desarrollos urbano regional  3. Planos</t>
+  </si>
+  <si>
+    <t>1. Memoria Explicativa  2. Ordenanza Local  3. Planos</t>
   </si>
 </sst>
 </file>
@@ -233,501 +245,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3124200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>742949</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE59D80-0723-41AD-B615-2928EB6653A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9648825" y="428624"/>
-          <a:ext cx="3076575" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>1. Memoria explicativa</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>2. Lineamientos de desarrollo urbano regional</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>3. Planos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AD01D9-8474-425D-B2BF-4BAADF7925ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163050" y="1476375"/>
-          <a:ext cx="2952750" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>1. Memoria explicativa</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>2. Ordenanza</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>3. Planos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEB5EF1-A384-44E5-A70B-9F6710A88F68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163050" y="1476375"/>
-          <a:ext cx="2952750" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>1. Memoria explicativa</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>2. Ordenanza</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>3. Planos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3028950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1104899</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D5A29-9272-4748-95BF-0AE5D28F8B47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="3505200"/>
-          <a:ext cx="2952750" cy="1028699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>1. Memoria explicativa</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>2. Estudios de Factibilidad</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>3. Ordenanza Local</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>4. Planos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2990850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CuadroTexto 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA95E49-3B9D-4F11-8FEA-ACA9BEB00183}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9105900" y="4819650"/>
-          <a:ext cx="2952750" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>1. Memoria explicativa</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>2. Ordenanza</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" baseline="0"/>
-            <a:t> Local</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>3. Planos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3028950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DA68F3-2A1C-47CA-BA83-702861253415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="6362700"/>
-          <a:ext cx="2952750" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>1. Memoria explicativa</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>2. Ordenanza</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" baseline="0"/>
-            <a:t> Local</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100"/>
-            <a:t>3. Planos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1209,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB48EC8-8094-425D-B2F4-8CDFD5813488}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +774,9 @@
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +797,9 @@
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1299,7 +820,9 @@
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +843,9 @@
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +866,9 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +889,9 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +908,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1387,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1F6C47-AC30-4791-9D72-F127EA293F95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
